--- a/tradept/Excel/Localization/Main/english/D道具合成配方表_Synth_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/D道具合成配方表_Synth_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\sands-of-salzaar-traducao-portugues-brasileiro\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF59E9-2534-47FD-90C8-A7A3AE67C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CE380-67B0-4043-848C-8DF20DC86522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -172,106 +172,100 @@
     <t>力量药剂制作</t>
   </si>
   <si>
-    <t>Poção de Força</t>
-  </si>
-  <si>
-    <t>Poção Tóxica</t>
+    <t>Elixir de Cura</t>
+  </si>
+  <si>
+    <t>Elixir de Mana</t>
+  </si>
+  <si>
+    <t>Elixir de Fúria</t>
+  </si>
+  <si>
+    <t>Elixir Vampírico</t>
+  </si>
+  <si>
+    <t>Elixir de Força</t>
+  </si>
+  <si>
+    <t>Elixir de Resiliência</t>
+  </si>
+  <si>
+    <t>Elixir Tóxico</t>
+  </si>
+  <si>
+    <t>Elixir Incandescente</t>
+  </si>
+  <si>
+    <t>Elixir do Gigante Alpino</t>
+  </si>
+  <si>
+    <t>Elixir Arcano</t>
+  </si>
+  <si>
+    <t>Elixir das Sombras</t>
+  </si>
+  <si>
+    <t>Pergaminho do Mirage</t>
+  </si>
+  <si>
+    <t>Pergaminho do Chamador de Lobos</t>
+  </si>
+  <si>
+    <t>Pergaminho da Rajada</t>
+  </si>
+  <si>
+    <t>Pergaminho das Trevas</t>
+  </si>
+  <si>
+    <t>Pergaminho do Rastreador do Deserto</t>
+  </si>
+  <si>
+    <t>Pergaminho da Lua Louca</t>
+  </si>
+  <si>
+    <t>Pergaminho da Ligação</t>
+  </si>
+  <si>
+    <t>Pergaminho do Terror</t>
+  </si>
+  <si>
+    <t>Pergaminho da Proteção da Natureza</t>
+  </si>
+  <si>
+    <t>Pergaminho da Luz Estelar</t>
+  </si>
+  <si>
+    <t>Pergaminho do Berserker</t>
+  </si>
+  <si>
+    <t>Pergaminho do Renascimento</t>
+  </si>
+  <si>
+    <t>Pergaminho da Nova Flamejante</t>
+  </si>
+  <si>
+    <t>Pergaminho da Balada Flamejante</t>
+  </si>
+  <si>
+    <t>Poção de Rosa Branca (P)</t>
+  </si>
+  <si>
+    <t>Poção de Rosa Branca (M)</t>
+  </si>
+  <si>
+    <t>Poção de Rosa Branca (G)</t>
   </si>
   <si>
     <t>Orbe de Recuperação</t>
   </si>
   <si>
-    <t>Orbe Restaurador</t>
-  </si>
-  <si>
-    <t>Poção de Recuperação</t>
-  </si>
-  <si>
-    <t>Poção de Vigor</t>
-  </si>
-  <si>
-    <t>Poção Sanguinária</t>
-  </si>
-  <si>
-    <t>Poção de Resistência</t>
-  </si>
-  <si>
-    <t>Poção Incendiária</t>
-  </si>
-  <si>
-    <t>Poção do Gigante da Montanha</t>
-  </si>
-  <si>
-    <t>Poção de Feitiçaria</t>
-  </si>
-  <si>
-    <t>Poção das Sombras</t>
-  </si>
-  <si>
-    <t>Pergaminho da Dissimulação</t>
-  </si>
-  <si>
-    <t>Pergaminho da Convocação do Lobo</t>
-  </si>
-  <si>
-    <t>Pergaminho do Impacto dos Ventos</t>
-  </si>
-  <si>
-    <t>Pergaminho do Vórtice Sombrio</t>
-  </si>
-  <si>
-    <t>Pergaminho do Poder do Vento de Areia</t>
-  </si>
-  <si>
-    <t>Pergaminho da Lua Enganadora</t>
-  </si>
-  <si>
-    <t>Pergaminho da Prisão das Profundezas</t>
-  </si>
-  <si>
-    <t>Pergaminho do Rugido do Medo</t>
-  </si>
-  <si>
-    <t>Pergaminho do Refúgio da Árvore</t>
-  </si>
-  <si>
-    <t>Pergaminho do Brilho das Estrelas</t>
-  </si>
-  <si>
-    <t>Pergaminho da Fúria Mágica</t>
-  </si>
-  <si>
-    <t>Pergaminho da Ressurreição</t>
-  </si>
-  <si>
-    <t>Pergaminho da Nova Estrela de Fogo</t>
-  </si>
-  <si>
-    <t>Pergaminho da Dança das Chamas</t>
-  </si>
-  <si>
-    <t>Elixir da Rosa Branca - Pequeno</t>
-  </si>
-  <si>
-    <t>Elixir da Rosa Branca - Médio</t>
-  </si>
-  <si>
-    <t>Elixir da Rosa Branca - Grande</t>
-  </si>
-  <si>
-    <t>Poção do Berserk</t>
-  </si>
-  <si>
-    <t>Elixir de Resiliência</t>
-  </si>
-  <si>
-    <t>Elixir de Força</t>
-  </si>
-  <si>
-    <t>Orbe de Recuperação Arcano</t>
-  </si>
-  <si>
-    <t>Orbe de Mana</t>
+    <t>Orbe Restauradora</t>
+  </si>
+  <si>
+    <t>Orbe Arcana</t>
+  </si>
+  <si>
+    <t>Orbe do Poço de Mana</t>
   </si>
 </sst>
 </file>
@@ -719,15 +713,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36">
@@ -749,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -760,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -771,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -782,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -793,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -804,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -815,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -826,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24">
@@ -837,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -848,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -859,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24">
@@ -870,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -881,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24">
@@ -892,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24">
@@ -903,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24">
@@ -914,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24">
@@ -925,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24">
@@ -936,7 +928,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24">
@@ -947,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24">
@@ -958,7 +950,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24">
@@ -969,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24">
@@ -980,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -991,7 +983,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24">
@@ -1002,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24">
@@ -1013,7 +1005,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24">
@@ -1024,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24">
@@ -1035,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24">
@@ -1046,7 +1038,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24">
@@ -1057,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24">
@@ -1068,7 +1060,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24">
@@ -1079,7 +1071,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24">
@@ -1090,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24">
@@ -1101,7 +1093,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24">
@@ -1112,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
